--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="3" r:id="rId1"/>
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -400,21 +405,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,6 +622,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -949,18 +958,18 @@
   <dimension ref="C2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -969,180 +978,180 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="3:14" ht="16" thickBot="1">
+    <row r="3" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:14">
-      <c r="C6" s="18" t="s">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>5000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15">
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13">
         <v>5000</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="3:14">
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>-3000</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
         <v>-3000</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>1000</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="13">
         <v>1000</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="3:14">
-      <c r="C9" s="18" t="s">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13">
         <v>1000</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15">
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>-1000</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="3" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Assets</t>
   </si>
@@ -47,48 +42,9 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t>Issued stock for cash</t>
-  </si>
-  <si>
     <t>Retained Earnings</t>
   </si>
   <si>
@@ -96,6 +52,28 @@
   </si>
   <si>
     <t>Paid cash for rent</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Issue stock for cash</t>
   </si>
   <si>
     <t>Sold to customers for cash</t>
@@ -104,11 +82,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,22 +95,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -151,31 +118,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,32 +146,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -235,223 +169,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="8" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="12" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="13" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="14" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="167" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="172">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -535,6 +645,8 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -618,7 +730,10 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="167"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -955,152 +1070,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N9"/>
+  <dimension ref="C2:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+    <row r="2" spans="3:14">
+      <c r="C2" s="2"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="17" t="s">
+    <row r="3" spans="3:14" ht="16" thickBot="1">
+      <c r="C3" s="4"/>
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="9"/>
+    <row r="4" spans="3:14" ht="30">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="33" customHeight="1">
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="3:14" ht="33" customHeight="1">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="13">
-        <v>5000</v>
+        <v>-3000</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="13">
-        <v>5000</v>
-      </c>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="15"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="M6" s="13">
+        <v>-3000</v>
+      </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="16" t="s">
-        <v>23</v>
+    <row r="7" spans="3:14" ht="33" customHeight="1">
+      <c r="C7" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="13">
-        <v>-3000</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
@@ -1109,57 +1216,38 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <v>-3000</v>
-      </c>
+      <c r="L7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1000</v>
-      </c>
+    <row r="8" spans="3:14" ht="33" customHeight="1">
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>1000</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="13">
-        <v>1000</v>
-      </c>
+      <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="N8" s="13">
         <v>-1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D2:J2"/>
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="3" r:id="rId1"/>
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -146,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -323,6 +328,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -498,7 +540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,9 +577,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,6 +597,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1070,185 +1118,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14">
-      <c r="C2" s="2"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="20" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
     </row>
-    <row r="3" spans="3:14" ht="16" thickBot="1">
-      <c r="C3" s="4"/>
-      <c r="D3" s="16" t="s">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="7" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="L2" s="16"/>
     </row>
-    <row r="4" spans="3:14" ht="30">
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="11" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="33" customHeight="1">
-      <c r="C5" s="12" t="s">
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13">
+      <c r="B4" s="13">
         <v>5000</v>
       </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13">
-        <v>5000</v>
-      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="13">
+        <v>-3000</v>
+      </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="3:14" ht="33" customHeight="1">
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13">
-        <v>-3000</v>
-      </c>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="13">
-        <v>-3000</v>
-      </c>
-      <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="3:14" ht="33" customHeight="1">
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13">
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="13">
         <v>1000</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="13">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="3:14" ht="33" customHeight="1">
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13">
         <v>-1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="7">
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="3" r:id="rId1"/>
@@ -87,11 +82,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +131,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -575,37 +576,39 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1121,39 +1124,39 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F7"/>
+      <selection activeCell="B4" sqref="B4:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1163,20 +1166,20 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="3"/>
       <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -1210,7 +1213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="33" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
@@ -1218,9 +1221,9 @@
         <v>5000</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="13">
         <v>5000</v>
       </c>
@@ -1230,7 +1233,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="33" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1238,9 +1241,9 @@
         <v>-3000</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="23"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
@@ -1250,7 +1253,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="33" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1258,9 +1261,9 @@
         <v>1000</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="23"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
@@ -1270,17 +1273,17 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="33" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>1000</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
@@ -1292,14 +1295,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8305D4-81E6-40B2-BF71-8F9E7CD0E291}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Assets</t>
   </si>
@@ -46,12 +52,6 @@
   </si>
   <si>
     <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>Purchased supplies on account</t>
-  </si>
-  <si>
-    <t>Paid cash for rent</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
@@ -73,22 +73,38 @@
     <t>Supplies Expense</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Paid cash for rent</t>
+  </si>
+  <si>
     <t>Issue stock for cash</t>
   </si>
   <si>
-    <t>Sold to customers for cash</t>
+    <t>Sell to customers for cash</t>
+  </si>
+  <si>
+    <t>Purchased supplies on account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,6 +134,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,7 +155,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8DB4E2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,111 +192,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCE3F2"/>
+        <fgColor rgb="FFD0F3FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -267,352 +216,330 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="172">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="8" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="12" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="13" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="14" xfId="167" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="167" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="167" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="172">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -680,24 +607,9 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -765,29 +677,22 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="167"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8DB4E2"/>
+      <color rgb="FFD0F3FC"/>
+      <color rgb="FFFEF1E6"/>
+      <color rgb="FFFEF4EC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1120,192 +1025,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="17" t="s">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="27">
+        <v>-3000</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="30">
+        <v>-3000</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="27">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13">
-        <v>5000</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13">
-        <v>-3000</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
-        <v>-3000</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19">
         <v>1000</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13">
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="29">
         <v>1000</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="13">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13">
-        <v>-1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8305D4-81E6-40B2-BF71-8F9E7CD0E291}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09413B97-7642-4DEE-A4B6-549A14F3E975}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Assets</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Purchased supplies on account</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1198,7 @@
     </row>
     <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -1218,8 +1224,8 @@
       <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>3</v>
+      <c r="A7" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -1240,8 +1246,8 @@
       <c r="N7" s="5"/>
       <c r="O7" s="33"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="29">
-        <v>1000</v>
+      <c r="Q7" s="30">
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09413B97-7642-4DEE-A4B6-549A14F3E975}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52802C9-E468-4E3D-911D-794EF9AEC944}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="33"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="30">
+      <c r="Q7" s="33">
         <v>-1000</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/04_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52802C9-E468-4E3D-911D-794EF9AEC944}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647EDEF6-C9F0-E949-BB32-485F4DBD4C97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Assets</t>
   </si>
@@ -443,7 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,6 +543,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1035,24 +1038,24 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="34"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1064,15 +1067,13 @@
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
         <v>0</v>
@@ -1104,7 +1105,7 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="34"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
@@ -1142,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1170,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
@@ -1191,12 +1192,12 @@
       <c r="M5" s="28"/>
       <c r="N5" s="5"/>
       <c r="O5" s="30">
-        <v>-3000</v>
+        <v>3000</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="25">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="28"/>
@@ -1216,14 +1217,14 @@
       <c r="K6" s="31"/>
       <c r="L6" s="11"/>
       <c r="M6" s="27">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="32"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="26"/>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1248,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="33">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
